--- a/m6A papers/Performance_0606.xlsx
+++ b/m6A papers/Performance_0606.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="paper" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="310">
   <si>
     <t>Title</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -232,14 +232,6 @@
   </si>
   <si>
     <t>Arabidopsis thaliana</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mus musculus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Saccharomyces cerevisiae</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -964,10 +956,6 @@
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organism</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1118,38 +1106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Saccharomyces cerevisiae (S51)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>W. Chen, H. Tran, Z. Liang, H. Lin and L. Zhang, "Identification and analysis of the N6-methyladenosine in the saccharomyces cerevisiae transcriptome", </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sci. Rep.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, vol. 5, no. 1, pp. 13859, Nov. 2015.</t>
-    </r>
-  </si>
-  <si>
-    <t>http://lin.uestc.edu.cn/server/m6Apred.php</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Saccharomyces cerevisiae</t>
   </si>
   <si>
@@ -1157,29 +1113,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>51 bp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>iN6-Methyl</t>
   </si>
   <si>
     <t>pm6A-CNN</t>
   </si>
   <si>
-    <t>It can be observed that H41 and M41 have AUC of 90.30% and 91.33%, receptively. while the AUC of S51 is 80.31%.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>iMethyl-Deep</t>
-  </si>
-  <si>
-    <t>AUC (H.sapiens 0.96, M.musculus 0.97, S.cerevisiae 0.92, A.thanliana 0.97</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>m6A-NeuralTool</t>
@@ -1324,12 +1264,35 @@
     <t>P8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>https://github.com/abdul-bioinfo/iMethyl-deep</t>
+  </si>
+  <si>
+    <t>Saccharomyces cerevisiae (S51)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhu, X.; He, J.; Zhao, S.; Tao, W.; Xiong, Y.; Bi, S. A comprehensive comparison and analysis of computational predictors for RNA N6-methyladenosine sites of Saccharomyces cerevisiae. B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organism</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>51 bp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1405,13 +1368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -1632,7 +1588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1787,13 +1743,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1818,12 +1768,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1972,9 +1922,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1999,185 +1946,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6309808" cy="2912633"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8002905" y="1885950"/>
-          <a:ext cx="6309808" cy="2912633"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6510170" cy="5109882"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="圖片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8162925" y="5238750"/>
-          <a:ext cx="6510170" cy="5109882"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>147210</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>124347</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="圖片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8162925" y="11144250"/>
-          <a:ext cx="7005210" cy="3686697"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>311674</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>29556</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="圖片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8157882" y="15363265"/>
-          <a:ext cx="5096586" cy="3010320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6309808" cy="2912633"/>
@@ -2227,7 +1998,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6510170" cy="5109883"/>
@@ -2277,7 +2048,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6309808" cy="2912633"/>
@@ -2327,7 +2098,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6510170" cy="5109883"/>
@@ -2377,7 +2148,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6510169" cy="5109882"/>
@@ -2427,14 +2198,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>311674</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>29556</xdr:rowOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>29555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2444,7 +2215,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2465,14 +2236,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>311674</xdr:colOff>
-      <xdr:row>234</xdr:row>
-      <xdr:rowOff>29555</xdr:rowOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>29556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2482,7 +2253,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2503,18 +2274,56 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>241</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>311675</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>29555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="14" name="圖片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10892118" y="58158529"/>
+          <a:ext cx="5096586" cy="3010320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>612029</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="圖片 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2527,8 +2336,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10892118" y="58158529"/>
-          <a:ext cx="5096586" cy="3010320"/>
+          <a:off x="7507941" y="1916205"/>
+          <a:ext cx="5363323" cy="5026103"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254517</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76716</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="圖片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7474324" y="7239000"/>
+          <a:ext cx="5039428" cy="3696216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2839,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U109"/>
   <sheetViews>
-    <sheetView topLeftCell="L46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S84" sqref="S84"/>
+    <sheetView tabSelected="1" topLeftCell="L14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2868,52 +2715,52 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>39</v>
@@ -2929,54 +2776,54 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="104">
+      <c r="D2" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="102">
         <v>43672</v>
       </c>
-      <c r="F2" s="72">
+      <c r="F2" s="70">
         <v>3.4910000000000001</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="97" t="s">
+      <c r="G2" s="68"/>
+      <c r="H2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="N2" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="O2" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="P2" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="K2" s="70" t="s">
-        <v>194</v>
-      </c>
-      <c r="L2" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="N2" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="O2" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="P2" s="107" t="s">
-        <v>175</v>
-      </c>
       <c r="Q2" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R2" s="22">
         <v>51</v>
@@ -2988,30 +2835,30 @@
         <v>80.31</v>
       </c>
       <c r="U2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
       <c r="Q3" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" s="74">
+        <v>177</v>
+      </c>
+      <c r="R3" s="72">
         <v>41</v>
       </c>
       <c r="S3" s="20">
@@ -3022,26 +2869,26 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
       <c r="Q4" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="R4" s="73"/>
+        <v>178</v>
+      </c>
+      <c r="R4" s="71"/>
       <c r="S4" s="21">
         <v>1450</v>
       </c>
@@ -3050,56 +2897,56 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="70" t="s">
+      <c r="A5" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="102">
+        <v>43749</v>
+      </c>
+      <c r="F5" s="106">
+        <v>4.5990000000000002</v>
+      </c>
+      <c r="G5" s="68"/>
+      <c r="H5" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="104">
-        <v>43749</v>
-      </c>
-      <c r="F5" s="108">
-        <v>4.5990000000000002</v>
-      </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="78" t="s">
+      <c r="K5" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="J5" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" s="75" t="s">
+      <c r="N5" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="L5" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="M5" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="N5" s="81" t="s">
-        <v>197</v>
-      </c>
-      <c r="O5" s="81" t="s">
-        <v>197</v>
-      </c>
-      <c r="P5" s="70" t="s">
-        <v>198</v>
+      <c r="O5" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="P5" s="68" t="s">
+        <v>196</v>
       </c>
       <c r="Q5" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="72">
+      <c r="R5" s="70">
         <v>41</v>
       </c>
       <c r="S5" s="42">
@@ -3110,26 +2957,26 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="71"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="69"/>
       <c r="Q6" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="74"/>
+      <c r="R6" s="72"/>
       <c r="S6" s="44">
         <v>308000</v>
       </c>
@@ -3138,84 +2985,84 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="69"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="67"/>
       <c r="Q7" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="R7" s="73"/>
+        <v>203</v>
+      </c>
+      <c r="R7" s="71"/>
       <c r="S7" s="43">
         <v>3868</v>
       </c>
       <c r="T7" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="103">
+        <v>44029</v>
+      </c>
+      <c r="F8" s="72">
+        <v>3.367</v>
+      </c>
+      <c r="G8" s="69"/>
+      <c r="H8" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="69" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="105">
-        <v>44029</v>
-      </c>
-      <c r="F8" s="74">
-        <v>3.367</v>
-      </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="71" t="s">
+      <c r="J8" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="J8" s="71" t="s">
+      <c r="M8" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="K8" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="L8" s="86" t="s">
+      <c r="N8" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="O8" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="P8" s="112" t="s">
         <v>210</v>
-      </c>
-      <c r="M8" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="N8" s="71" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="71" t="s">
-        <v>213</v>
-      </c>
-      <c r="P8" s="114" t="s">
-        <v>212</v>
       </c>
       <c r="Q8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="74">
+      <c r="R8" s="72">
         <v>41</v>
       </c>
       <c r="S8" s="46">
@@ -3226,26 +3073,26 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
       <c r="Q9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="74"/>
+      <c r="R9" s="72"/>
       <c r="S9" s="46">
         <v>1450</v>
       </c>
@@ -3254,22 +3101,22 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
       <c r="Q10" s="6" t="s">
         <v>22</v>
       </c>
@@ -3284,24 +3131,24 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
       <c r="Q11" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R11" s="21">
         <v>101</v>
@@ -3314,86 +3161,86 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="70" t="s">
+      <c r="A12" s="68" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="102">
+        <v>44217</v>
+      </c>
+      <c r="F12" s="70">
+        <v>5.7190000000000003</v>
+      </c>
+      <c r="G12" s="68"/>
+      <c r="H12" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="K12" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D12" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="104">
-        <v>44217</v>
-      </c>
-      <c r="F12" s="72">
-        <v>5.7190000000000003</v>
-      </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="70" t="s">
+      <c r="L12" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="J12" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="K12" s="68" t="s">
+      <c r="M12" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="N12" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="O12" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="P12" s="105" t="s">
         <v>231</v>
-      </c>
-      <c r="L12" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="M12" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="N12" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="O12" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="P12" s="107" t="s">
-        <v>233</v>
       </c>
       <c r="Q12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="R12" s="72">
+      <c r="R12" s="70">
         <v>41</v>
       </c>
       <c r="S12" s="19">
         <v>1760</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
       <c r="Q13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="R13" s="73"/>
+      <c r="R13" s="71"/>
       <c r="S13" s="21">
         <v>308000</v>
       </c>
@@ -3402,56 +3249,56 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>247</v>
-      </c>
-      <c r="C14" s="70" t="s">
+      <c r="A14" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="102">
+        <v>44078</v>
+      </c>
+      <c r="F14" s="70">
+        <v>8.8859999999999992</v>
+      </c>
+      <c r="G14" s="68"/>
+      <c r="H14" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D14" s="87" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="104">
-        <v>44078</v>
-      </c>
-      <c r="F14" s="72">
-        <v>8.8859999999999992</v>
-      </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="70" t="s">
+      <c r="L14" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="J14" s="70" t="s">
+      <c r="M14" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="N14" s="105" t="s">
         <v>242</v>
       </c>
-      <c r="K14" s="68" t="s">
+      <c r="O14" s="68" t="s">
         <v>243</v>
       </c>
-      <c r="L14" s="70" t="s">
-        <v>244</v>
-      </c>
-      <c r="M14" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="N14" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="O14" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="P14" s="70" t="s">
-        <v>246</v>
+      <c r="P14" s="68" t="s">
+        <v>243</v>
       </c>
       <c r="Q14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="72">
+      <c r="R14" s="70">
         <v>41</v>
       </c>
       <c r="S14" s="19">
@@ -3462,26 +3309,26 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
       <c r="Q15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="R15" s="74"/>
+      <c r="R15" s="72"/>
       <c r="S15" s="20">
         <v>10536</v>
       </c>
@@ -3490,26 +3337,26 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
       <c r="Q16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="R16" s="74"/>
+      <c r="R16" s="72"/>
       <c r="S16" s="20">
         <v>18294</v>
       </c>
@@ -3518,26 +3365,26 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
       <c r="Q17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="74"/>
+      <c r="R17" s="72"/>
       <c r="S17" s="20">
         <v>32100</v>
       </c>
@@ -3546,26 +3393,26 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
       <c r="Q18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="74"/>
+      <c r="R18" s="72"/>
       <c r="S18" s="20">
         <v>16532</v>
       </c>
@@ -3574,26 +3421,26 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
       <c r="Q19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="R19" s="74"/>
+      <c r="R19" s="72"/>
       <c r="S19" s="20">
         <v>15810</v>
       </c>
@@ -3602,26 +3449,26 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
       <c r="Q20" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="74"/>
+      <c r="R20" s="72"/>
       <c r="S20" s="20">
         <v>8802</v>
       </c>
@@ -3630,26 +3477,26 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
       <c r="Q21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="R21" s="74"/>
+      <c r="R21" s="72"/>
       <c r="S21" s="20">
         <v>18823</v>
       </c>
@@ -3658,26 +3505,26 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
       <c r="Q22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="74"/>
+      <c r="R22" s="72"/>
       <c r="S22" s="20">
         <v>9406</v>
       </c>
@@ -3686,26 +3533,26 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
       <c r="Q23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="R23" s="74"/>
+      <c r="R23" s="72"/>
       <c r="S23" s="20">
         <v>7048</v>
       </c>
@@ -3714,26 +3561,26 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
       <c r="Q24" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="R24" s="73"/>
+      <c r="R24" s="71"/>
       <c r="S24" s="21">
         <v>13740</v>
       </c>
@@ -3742,56 +3589,56 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="70" t="s">
+      <c r="A25" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="102">
+        <v>43960</v>
+      </c>
+      <c r="F25" s="70">
+        <v>4.0960000000000001</v>
+      </c>
+      <c r="G25" s="68"/>
+      <c r="H25" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="D25" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="104">
-        <v>43960</v>
-      </c>
-      <c r="F25" s="72">
-        <v>4.0960000000000001</v>
-      </c>
-      <c r="G25" s="70"/>
-      <c r="H25" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="70" t="s">
+      <c r="L25" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="J25" s="70" t="s">
+      <c r="M25" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="N25" s="105" t="s">
         <v>250</v>
       </c>
-      <c r="K25" s="70" t="s">
+      <c r="O25" s="105" t="s">
         <v>251</v>
       </c>
-      <c r="L25" s="70" t="s">
+      <c r="P25" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="M25" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="N25" s="107" t="s">
-        <v>253</v>
-      </c>
-      <c r="O25" s="107" t="s">
-        <v>254</v>
-      </c>
-      <c r="P25" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q25" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="R25" s="84">
+      <c r="Q25" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="R25" s="82">
         <v>51</v>
       </c>
       <c r="S25" s="19">
@@ -3802,24 +3649,24 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="85"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
       <c r="S26" s="21">
         <v>6540</v>
       </c>
@@ -3828,56 +3675,56 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="70" t="s">
+      <c r="A27" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="102">
+        <v>44214</v>
+      </c>
+      <c r="F27" s="70">
+        <v>4.4749999999999996</v>
+      </c>
+      <c r="G27" s="68"/>
+      <c r="H27" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="J27" s="68" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" s="68" t="s">
         <v>259</v>
       </c>
-      <c r="D27" s="100" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="104">
-        <v>44214</v>
-      </c>
-      <c r="F27" s="72">
-        <v>4.4749999999999996</v>
-      </c>
-      <c r="G27" s="70"/>
-      <c r="H27" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="70" t="s">
+      <c r="L27" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="M27" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="N27" s="105" t="s">
         <v>261</v>
       </c>
-      <c r="J27" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="K27" s="70" t="s">
+      <c r="O27" s="105" t="s">
+        <v>261</v>
+      </c>
+      <c r="P27" s="68" t="s">
         <v>262</v>
-      </c>
-      <c r="L27" s="70" t="s">
-        <v>263</v>
-      </c>
-      <c r="M27" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="N27" s="107" t="s">
-        <v>264</v>
-      </c>
-      <c r="O27" s="107" t="s">
-        <v>264</v>
-      </c>
-      <c r="P27" s="70" t="s">
-        <v>265</v>
       </c>
       <c r="Q27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R27" s="72">
+      <c r="R27" s="70">
         <v>41</v>
       </c>
       <c r="S27" s="19">
@@ -3889,26 +3736,26 @@
       <c r="U27" s="3"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
       <c r="Q28" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="R28" s="74"/>
+      <c r="R28" s="72"/>
       <c r="S28" s="20">
         <v>308000</v>
       </c>
@@ -3918,26 +3765,26 @@
       <c r="U28" s="3"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
       <c r="Q29" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="R29" s="74"/>
+        <v>264</v>
+      </c>
+      <c r="R29" s="72"/>
       <c r="S29" s="20">
         <v>196966</v>
       </c>
@@ -3946,26 +3793,26 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
       <c r="Q30" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="R30" s="74"/>
+        <v>263</v>
+      </c>
+      <c r="R30" s="72"/>
       <c r="S30" s="20">
         <v>11466</v>
       </c>
@@ -3974,26 +3821,26 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
       <c r="Q31" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="R31" s="73"/>
+        <v>56</v>
+      </c>
+      <c r="R31" s="71"/>
       <c r="S31" s="21">
         <v>2834</v>
       </c>
@@ -4002,56 +3849,56 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="B32" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="C32" s="71" t="s">
-        <v>204</v>
-      </c>
-      <c r="D32" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="104">
+      <c r="A32" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="68" t="s">
+        <v>276</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="102">
         <v>44197</v>
       </c>
-      <c r="F32" s="72">
+      <c r="F32" s="70">
         <v>3.367</v>
       </c>
-      <c r="G32" s="70"/>
-      <c r="H32" s="97" t="s">
+      <c r="G32" s="68"/>
+      <c r="H32" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="70" t="s">
+      <c r="I32" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="J32" s="68" t="s">
+      <c r="M32" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="N32" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="O32" s="105" t="s">
+        <v>270</v>
+      </c>
+      <c r="P32" s="105" t="s">
         <v>269</v>
-      </c>
-      <c r="K32" s="70" t="s">
-        <v>270</v>
-      </c>
-      <c r="L32" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="M32" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="N32" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="O32" s="107" t="s">
-        <v>273</v>
-      </c>
-      <c r="P32" s="107" t="s">
-        <v>272</v>
       </c>
       <c r="Q32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R32" s="72">
+      <c r="R32" s="70">
         <v>41</v>
       </c>
       <c r="S32" s="19">
@@ -4062,26 +3909,26 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
       <c r="Q33" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="R33" s="74"/>
+        <v>24</v>
+      </c>
+      <c r="R33" s="72"/>
       <c r="S33" s="20">
         <v>1450</v>
       </c>
@@ -4090,54 +3937,54 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="69"/>
       <c r="Q34" s="20" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="R34" s="20">
         <v>51</v>
       </c>
       <c r="S34" s="20">
-        <v>2614</v>
+        <v>6540</v>
       </c>
       <c r="T34" s="10">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
       <c r="Q35" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R35" s="21">
         <v>101</v>
@@ -4151,18 +3998,18 @@
     </row>
     <row r="36" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E36" s="7">
         <v>2021</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="39" t="s">
@@ -4177,7 +4024,7 @@
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R36" s="7">
         <v>41</v>
@@ -4190,36 +4037,36 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="70" t="s">
+      <c r="A37" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="72">
+      <c r="C37" s="68"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="70">
         <v>2020</v>
       </c>
-      <c r="F37" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="70"/>
-      <c r="H37" s="97" t="s">
+      <c r="F37" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="68"/>
+      <c r="H37" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="70"/>
-      <c r="P37" s="70"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
       <c r="Q37" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R37" s="72">
+      <c r="R37" s="70">
         <v>41</v>
       </c>
       <c r="S37" s="19">
@@ -4230,26 +4077,26 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
       <c r="Q38" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="R38" s="74"/>
+        <v>54</v>
+      </c>
+      <c r="R38" s="72"/>
       <c r="S38" s="20">
         <v>761300</v>
       </c>
@@ -4258,232 +4105,232 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
       <c r="Q39" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="R39" s="74"/>
+      <c r="R39" s="72"/>
       <c r="S39" s="20">
         <v>76104</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
       <c r="Q40" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="R40" s="74"/>
+        <v>56</v>
+      </c>
+      <c r="R40" s="72"/>
       <c r="S40" s="20">
         <v>53028</v>
       </c>
       <c r="T40" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
       <c r="Q41" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="R41" s="74"/>
+        <v>121</v>
+      </c>
+      <c r="R41" s="72"/>
       <c r="S41" s="20">
         <v>29354</v>
       </c>
       <c r="T41" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="R42" s="74"/>
+      <c r="R42" s="72"/>
       <c r="S42" s="20">
         <v>1553716</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="69"/>
       <c r="Q43" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="R43" s="74"/>
+        <v>58</v>
+      </c>
+      <c r="R43" s="72"/>
       <c r="S43" s="20">
         <v>326986</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
       <c r="Q44" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="R44" s="74"/>
+        <v>59</v>
+      </c>
+      <c r="R44" s="72"/>
       <c r="S44" s="20">
         <v>6903</v>
       </c>
       <c r="T44" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="69"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="69"/>
-      <c r="N45" s="69"/>
-      <c r="O45" s="69"/>
-      <c r="P45" s="69"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="67"/>
       <c r="Q45" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="R45" s="73"/>
+        <v>60</v>
+      </c>
+      <c r="R45" s="71"/>
       <c r="S45" s="21">
         <v>8188</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="72">
+      <c r="A46" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="70">
         <v>2020</v>
       </c>
-      <c r="F46" s="72">
+      <c r="F46" s="70">
         <v>3.4910000000000001</v>
       </c>
-      <c r="G46" s="70"/>
-      <c r="H46" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="70"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
       <c r="Q46" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R46" s="72">
+      <c r="R46" s="70">
         <v>41</v>
       </c>
       <c r="S46" s="19">
@@ -4494,26 +4341,26 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="69"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="69"/>
-      <c r="O47" s="69"/>
-      <c r="P47" s="69"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="67"/>
       <c r="Q47" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="R47" s="73"/>
+      <c r="R47" s="71"/>
       <c r="S47" s="21">
         <v>3868</v>
       </c>
@@ -4523,20 +4370,20 @@
     </row>
     <row r="48" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E48" s="7">
         <v>2020</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="39" t="s">
@@ -4551,51 +4398,51 @@
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S48" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T48" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="87" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="72">
+      <c r="A49" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="68"/>
+      <c r="D49" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="70">
         <v>2021</v>
       </c>
-      <c r="F49" s="72">
+      <c r="F49" s="70">
         <v>7.7210000000000001</v>
       </c>
-      <c r="G49" s="70"/>
-      <c r="H49" s="97" t="s">
+      <c r="G49" s="68"/>
+      <c r="H49" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68"/>
       <c r="Q49" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="R49" s="72">
+        <v>61</v>
+      </c>
+      <c r="R49" s="70">
         <v>41</v>
       </c>
       <c r="S49" s="19">
@@ -4606,26 +4453,26 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="98"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="71"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
       <c r="Q50" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="R50" s="74"/>
+        <v>62</v>
+      </c>
+      <c r="R50" s="72"/>
       <c r="S50" s="20">
         <v>10536</v>
       </c>
@@ -4634,26 +4481,26 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="98"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
       <c r="Q51" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="R51" s="74"/>
+        <v>63</v>
+      </c>
+      <c r="R51" s="72"/>
       <c r="S51" s="20">
         <v>18294</v>
       </c>
@@ -4662,26 +4509,26 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="71"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
       <c r="Q52" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="R52" s="74"/>
+        <v>64</v>
+      </c>
+      <c r="R52" s="72"/>
       <c r="S52" s="20">
         <v>32100</v>
       </c>
@@ -4690,26 +4537,26 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="71"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
       <c r="Q53" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="R53" s="74"/>
+        <v>65</v>
+      </c>
+      <c r="R53" s="72"/>
       <c r="S53" s="20">
         <v>16532</v>
       </c>
@@ -4718,26 +4565,26 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="71"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="98"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71"/>
-      <c r="O54" s="71"/>
-      <c r="P54" s="71"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="69"/>
       <c r="Q54" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="R54" s="74"/>
+        <v>66</v>
+      </c>
+      <c r="R54" s="72"/>
       <c r="S54" s="20">
         <v>15810</v>
       </c>
@@ -4746,26 +4593,26 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="98"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="71"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="71"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="69"/>
       <c r="Q55" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="R55" s="74"/>
+        <v>67</v>
+      </c>
+      <c r="R55" s="72"/>
       <c r="S55" s="20">
         <v>8802</v>
       </c>
@@ -4774,26 +4621,26 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="98"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="69"/>
+      <c r="P56" s="69"/>
       <c r="Q56" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="R56" s="74"/>
+        <v>68</v>
+      </c>
+      <c r="R56" s="72"/>
       <c r="S56" s="20">
         <v>18823</v>
       </c>
@@ -4802,26 +4649,26 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="98"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="71"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="69"/>
       <c r="Q57" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="R57" s="74"/>
+        <v>69</v>
+      </c>
+      <c r="R57" s="72"/>
       <c r="S57" s="20">
         <v>9406</v>
       </c>
@@ -4830,26 +4677,26 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="98"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71"/>
-      <c r="O58" s="71"/>
-      <c r="P58" s="71"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="69"/>
+      <c r="P58" s="69"/>
       <c r="Q58" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="R58" s="74"/>
+        <v>70</v>
+      </c>
+      <c r="R58" s="72"/>
       <c r="S58" s="20">
         <v>7048</v>
       </c>
@@ -4858,26 +4705,26 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="69"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="69"/>
-      <c r="N59" s="69"/>
-      <c r="O59" s="69"/>
-      <c r="P59" s="69"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
       <c r="Q59" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="R59" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="R59" s="71"/>
       <c r="S59" s="21">
         <v>13740</v>
       </c>
@@ -4886,38 +4733,38 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="B60" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="70"/>
-      <c r="D60" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="72">
+      <c r="A60" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="68"/>
+      <c r="D60" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="70">
         <v>2021</v>
       </c>
-      <c r="F60" s="72">
+      <c r="F60" s="70">
         <v>4.38</v>
       </c>
-      <c r="G60" s="70"/>
-      <c r="H60" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="70"/>
-      <c r="O60" s="70"/>
-      <c r="P60" s="70"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
       <c r="Q60" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R60" s="72">
+      <c r="R60" s="70">
         <v>41</v>
       </c>
       <c r="S60" s="19">
@@ -4928,26 +4775,26 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71"/>
-      <c r="O61" s="71"/>
-      <c r="P61" s="71"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="69"/>
       <c r="Q61" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="R61" s="74"/>
+      <c r="R61" s="72"/>
       <c r="S61" s="20">
         <v>308000</v>
       </c>
@@ -4956,94 +4803,94 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="71"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="69"/>
+      <c r="O62" s="69"/>
+      <c r="P62" s="69"/>
       <c r="Q62" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="R62" s="74"/>
+        <v>72</v>
+      </c>
+      <c r="R62" s="72"/>
       <c r="S62" s="20">
         <v>8979</v>
       </c>
       <c r="T62" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="69"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="69"/>
-      <c r="M63" s="69"/>
-      <c r="N63" s="69"/>
-      <c r="O63" s="69"/>
-      <c r="P63" s="69"/>
+      <c r="A63" s="67"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
+      <c r="N63" s="67"/>
+      <c r="O63" s="67"/>
+      <c r="P63" s="67"/>
       <c r="Q63" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="R63" s="73"/>
+        <v>74</v>
+      </c>
+      <c r="R63" s="71"/>
       <c r="S63" s="21">
         <v>67650</v>
       </c>
       <c r="T63" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="E64" s="72">
+      <c r="A64" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="68"/>
+      <c r="D64" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="70">
         <v>2021</v>
       </c>
-      <c r="F64" s="72">
+      <c r="F64" s="70">
         <v>2.984</v>
       </c>
-      <c r="G64" s="70"/>
-      <c r="H64" s="65" t="s">
+      <c r="G64" s="68"/>
+      <c r="H64" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
-      <c r="L64" s="70"/>
-      <c r="M64" s="70"/>
-      <c r="N64" s="70"/>
-      <c r="O64" s="70"/>
-      <c r="P64" s="70"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="68"/>
+      <c r="P64" s="68"/>
       <c r="Q64" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="R64" s="72">
+      <c r="R64" s="70">
         <v>41</v>
       </c>
       <c r="S64" s="19">
@@ -5054,26 +4901,26 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="71"/>
-      <c r="K65" s="71"/>
-      <c r="L65" s="71"/>
-      <c r="M65" s="71"/>
-      <c r="N65" s="71"/>
-      <c r="O65" s="71"/>
-      <c r="P65" s="71"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="87"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="69"/>
+      <c r="J65" s="69"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="69"/>
+      <c r="P65" s="69"/>
       <c r="Q65" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R65" s="74"/>
+      <c r="R65" s="72"/>
       <c r="S65" s="20">
         <v>3868</v>
       </c>
@@ -5082,26 +4929,26 @@
       </c>
     </row>
     <row r="66" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="69"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="69"/>
-      <c r="J66" s="69"/>
-      <c r="K66" s="69"/>
-      <c r="L66" s="69"/>
-      <c r="M66" s="69"/>
-      <c r="N66" s="69"/>
-      <c r="O66" s="69"/>
-      <c r="P66" s="69"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="67"/>
+      <c r="O66" s="67"/>
+      <c r="P66" s="67"/>
       <c r="Q66" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="R66" s="73"/>
+        <v>75</v>
+      </c>
+      <c r="R66" s="71"/>
       <c r="S66" s="21">
         <v>1229712</v>
       </c>
@@ -5110,36 +4957,36 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="B67" s="72"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="E67" s="72">
+      <c r="A67" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" s="70">
         <v>2021</v>
       </c>
-      <c r="F67" s="72">
+      <c r="F67" s="70">
         <v>11.622</v>
       </c>
-      <c r="G67" s="72"/>
-      <c r="H67" s="97" t="s">
+      <c r="G67" s="70"/>
+      <c r="H67" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="72"/>
-      <c r="M67" s="72"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72"/>
-      <c r="P67" s="72"/>
+      <c r="I67" s="70"/>
+      <c r="J67" s="70"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="70"/>
+      <c r="M67" s="70"/>
+      <c r="N67" s="70"/>
+      <c r="O67" s="70"/>
+      <c r="P67" s="70"/>
       <c r="Q67" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R67" s="72">
+        <v>116</v>
+      </c>
+      <c r="R67" s="70">
         <v>41</v>
       </c>
       <c r="S67" s="19">
@@ -5150,26 +4997,26 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="73"/>
-      <c r="B68" s="73"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="73"/>
-      <c r="H68" s="99"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="73"/>
-      <c r="K68" s="73"/>
-      <c r="L68" s="73"/>
-      <c r="M68" s="73"/>
-      <c r="N68" s="73"/>
-      <c r="O68" s="73"/>
-      <c r="P68" s="73"/>
+      <c r="A68" s="71"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="71"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="71"/>
+      <c r="L68" s="71"/>
+      <c r="M68" s="71"/>
+      <c r="N68" s="71"/>
+      <c r="O68" s="71"/>
+      <c r="P68" s="71"/>
       <c r="Q68" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="R68" s="73"/>
+        <v>111</v>
+      </c>
+      <c r="R68" s="71"/>
       <c r="S68" s="21">
         <v>21306</v>
       </c>
@@ -5178,38 +5025,38 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="70" t="s">
-        <v>219</v>
-      </c>
-      <c r="B69" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="E69" s="72">
+      <c r="A69" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="68"/>
+      <c r="D69" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="E69" s="70">
         <v>2021</v>
       </c>
-      <c r="F69" s="72">
+      <c r="F69" s="70">
         <v>2.6789999999999998</v>
       </c>
-      <c r="G69" s="70"/>
-      <c r="H69" s="97" t="s">
+      <c r="G69" s="68"/>
+      <c r="H69" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="I69" s="70"/>
-      <c r="J69" s="70"/>
-      <c r="K69" s="70"/>
-      <c r="L69" s="70"/>
-      <c r="M69" s="70"/>
-      <c r="N69" s="70"/>
-      <c r="O69" s="70"/>
-      <c r="P69" s="70"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="68"/>
+      <c r="L69" s="68"/>
+      <c r="M69" s="68"/>
+      <c r="N69" s="68"/>
+      <c r="O69" s="68"/>
+      <c r="P69" s="68"/>
       <c r="Q69" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="R69" s="72">
+        <v>107</v>
+      </c>
+      <c r="R69" s="70">
         <v>41</v>
       </c>
       <c r="S69" s="19">
@@ -5220,26 +5067,26 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="71"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="98"/>
-      <c r="I70" s="71"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="71"/>
-      <c r="M70" s="71"/>
-      <c r="N70" s="71"/>
-      <c r="O70" s="71"/>
-      <c r="P70" s="71"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="96"/>
+      <c r="I70" s="69"/>
+      <c r="J70" s="69"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="69"/>
+      <c r="M70" s="69"/>
+      <c r="N70" s="69"/>
+      <c r="O70" s="69"/>
+      <c r="P70" s="69"/>
       <c r="Q70" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="R70" s="74"/>
+        <v>108</v>
+      </c>
+      <c r="R70" s="72"/>
       <c r="S70" s="20">
         <v>1760</v>
       </c>
@@ -5248,26 +5095,26 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="71"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="98"/>
-      <c r="I71" s="71"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="71"/>
-      <c r="L71" s="71"/>
-      <c r="M71" s="71"/>
-      <c r="N71" s="71"/>
-      <c r="O71" s="71"/>
-      <c r="P71" s="71"/>
+      <c r="A71" s="69"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="96"/>
+      <c r="I71" s="69"/>
+      <c r="J71" s="69"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="69"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="69"/>
+      <c r="O71" s="69"/>
+      <c r="P71" s="69"/>
       <c r="Q71" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="R71" s="74"/>
+        <v>117</v>
+      </c>
+      <c r="R71" s="72"/>
       <c r="S71" s="20">
         <v>31874</v>
       </c>
@@ -5276,26 +5123,26 @@
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="71"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="98"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71"/>
-      <c r="O72" s="71"/>
-      <c r="P72" s="71"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="96"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="69"/>
+      <c r="K72" s="69"/>
+      <c r="L72" s="69"/>
+      <c r="M72" s="69"/>
+      <c r="N72" s="69"/>
+      <c r="O72" s="69"/>
+      <c r="P72" s="69"/>
       <c r="Q72" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="R72" s="74"/>
+        <v>117</v>
+      </c>
+      <c r="R72" s="72"/>
       <c r="S72" s="20">
         <v>23630</v>
       </c>
@@ -5304,26 +5151,26 @@
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="98"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="71"/>
-      <c r="L73" s="71"/>
-      <c r="M73" s="71"/>
-      <c r="N73" s="71"/>
-      <c r="O73" s="71"/>
-      <c r="P73" s="71"/>
+      <c r="A73" s="69"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="96"/>
+      <c r="I73" s="69"/>
+      <c r="J73" s="69"/>
+      <c r="K73" s="69"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="69"/>
+      <c r="P73" s="69"/>
       <c r="Q73" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="R73" s="74"/>
+        <v>145</v>
+      </c>
+      <c r="R73" s="72"/>
       <c r="S73" s="20">
         <v>45400</v>
       </c>
@@ -5332,26 +5179,26 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="98"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
-      <c r="K74" s="71"/>
-      <c r="L74" s="71"/>
-      <c r="M74" s="71"/>
-      <c r="N74" s="71"/>
-      <c r="O74" s="71"/>
-      <c r="P74" s="71"/>
+      <c r="A74" s="69"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="69"/>
+      <c r="O74" s="69"/>
+      <c r="P74" s="69"/>
       <c r="Q74" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="R74" s="74"/>
+        <v>119</v>
+      </c>
+      <c r="R74" s="72"/>
       <c r="S74" s="20">
         <v>36670</v>
       </c>
@@ -5360,26 +5207,26 @@
       </c>
     </row>
     <row r="75" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="69"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="69"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="69"/>
-      <c r="J75" s="69"/>
-      <c r="K75" s="69"/>
-      <c r="L75" s="69"/>
-      <c r="M75" s="69"/>
-      <c r="N75" s="69"/>
-      <c r="O75" s="69"/>
-      <c r="P75" s="69"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+      <c r="L75" s="67"/>
+      <c r="M75" s="67"/>
+      <c r="N75" s="67"/>
+      <c r="O75" s="67"/>
+      <c r="P75" s="67"/>
       <c r="Q75" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="R75" s="73"/>
+        <v>106</v>
+      </c>
+      <c r="R75" s="71"/>
       <c r="S75" s="21">
         <v>22382</v>
       </c>
@@ -5388,38 +5235,38 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="B76" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" s="72">
+      <c r="A76" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="68"/>
+      <c r="D76" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="70">
         <v>2022</v>
       </c>
-      <c r="F76" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="G76" s="70"/>
-      <c r="H76" s="97" t="s">
+      <c r="F76" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="G76" s="68"/>
+      <c r="H76" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="70"/>
-      <c r="J76" s="70"/>
-      <c r="K76" s="70"/>
-      <c r="L76" s="70"/>
-      <c r="M76" s="70"/>
-      <c r="N76" s="70"/>
-      <c r="O76" s="70"/>
-      <c r="P76" s="70"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="68"/>
+      <c r="L76" s="68"/>
+      <c r="M76" s="68"/>
+      <c r="N76" s="68"/>
+      <c r="O76" s="68"/>
+      <c r="P76" s="68"/>
       <c r="Q76" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="R76" s="72">
+        <v>109</v>
+      </c>
+      <c r="R76" s="70">
         <v>41</v>
       </c>
       <c r="S76" s="19">
@@ -5430,26 +5277,26 @@
       </c>
     </row>
     <row r="77" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="69"/>
-      <c r="B77" s="69"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="88"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="99"/>
-      <c r="I77" s="69"/>
-      <c r="J77" s="69"/>
-      <c r="K77" s="69"/>
-      <c r="L77" s="69"/>
-      <c r="M77" s="69"/>
-      <c r="N77" s="69"/>
-      <c r="O77" s="69"/>
-      <c r="P77" s="69"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="97"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="67"/>
+      <c r="L77" s="67"/>
+      <c r="M77" s="67"/>
+      <c r="N77" s="67"/>
+      <c r="O77" s="67"/>
+      <c r="P77" s="67"/>
       <c r="Q77" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="R77" s="73"/>
+        <v>110</v>
+      </c>
+      <c r="R77" s="71"/>
       <c r="S77" s="21">
         <v>24000</v>
       </c>
@@ -5458,38 +5305,38 @@
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="B78" s="70" t="s">
+      <c r="A78" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C78" s="70"/>
-      <c r="D78" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="E78" s="72">
+      <c r="C78" s="68"/>
+      <c r="D78" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="70">
         <v>2022</v>
       </c>
-      <c r="F78" s="72">
+      <c r="F78" s="70">
         <v>11.622</v>
       </c>
-      <c r="G78" s="70"/>
-      <c r="H78" s="97" t="s">
+      <c r="G78" s="68"/>
+      <c r="H78" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="70"/>
-      <c r="L78" s="70"/>
-      <c r="M78" s="70"/>
-      <c r="N78" s="70"/>
-      <c r="O78" s="70"/>
-      <c r="P78" s="70"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="68"/>
+      <c r="K78" s="68"/>
+      <c r="L78" s="68"/>
+      <c r="M78" s="68"/>
+      <c r="N78" s="68"/>
+      <c r="O78" s="68"/>
+      <c r="P78" s="68"/>
       <c r="Q78" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="R78" s="72">
+        <v>109</v>
+      </c>
+      <c r="R78" s="70">
         <v>41</v>
       </c>
       <c r="S78" s="19">
@@ -5500,26 +5347,26 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="71"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="101"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="98"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="71"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="71"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="71"/>
-      <c r="P79" s="71"/>
+      <c r="A79" s="69"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="96"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="69"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="69"/>
+      <c r="M79" s="69"/>
+      <c r="N79" s="69"/>
+      <c r="O79" s="69"/>
+      <c r="P79" s="69"/>
       <c r="Q79" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="R79" s="74"/>
+      <c r="R79" s="72"/>
       <c r="S79" s="20">
         <v>308000</v>
       </c>
@@ -5528,26 +5375,26 @@
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="101"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="98"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="71"/>
-      <c r="L80" s="71"/>
-      <c r="M80" s="71"/>
-      <c r="N80" s="71"/>
-      <c r="O80" s="71"/>
-      <c r="P80" s="71"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="96"/>
+      <c r="I80" s="69"/>
+      <c r="J80" s="69"/>
+      <c r="K80" s="69"/>
+      <c r="L80" s="69"/>
+      <c r="M80" s="69"/>
+      <c r="N80" s="69"/>
+      <c r="O80" s="69"/>
+      <c r="P80" s="69"/>
       <c r="Q80" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="R80" s="74"/>
+        <v>113</v>
+      </c>
+      <c r="R80" s="72"/>
       <c r="S80" s="20">
         <v>20000</v>
       </c>
@@ -5556,26 +5403,26 @@
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="71"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="101"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="98"/>
-      <c r="I81" s="71"/>
-      <c r="J81" s="71"/>
-      <c r="K81" s="71"/>
-      <c r="L81" s="71"/>
-      <c r="M81" s="71"/>
-      <c r="N81" s="71"/>
-      <c r="O81" s="71"/>
-      <c r="P81" s="71"/>
+      <c r="A81" s="69"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="69"/>
+      <c r="H81" s="96"/>
+      <c r="I81" s="69"/>
+      <c r="J81" s="69"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="69"/>
+      <c r="M81" s="69"/>
+      <c r="N81" s="69"/>
+      <c r="O81" s="69"/>
+      <c r="P81" s="69"/>
       <c r="Q81" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="R81" s="74"/>
+        <v>105</v>
+      </c>
+      <c r="R81" s="72"/>
       <c r="S81" s="20">
         <v>31874</v>
       </c>
@@ -5584,26 +5431,26 @@
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="71"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="101"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="98"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="71"/>
-      <c r="K82" s="71"/>
-      <c r="L82" s="71"/>
-      <c r="M82" s="71"/>
-      <c r="N82" s="71"/>
-      <c r="O82" s="71"/>
-      <c r="P82" s="71"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="99"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="96"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="69"/>
+      <c r="K82" s="69"/>
+      <c r="L82" s="69"/>
+      <c r="M82" s="69"/>
+      <c r="N82" s="69"/>
+      <c r="O82" s="69"/>
+      <c r="P82" s="69"/>
       <c r="Q82" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="R82" s="74"/>
+        <v>118</v>
+      </c>
+      <c r="R82" s="72"/>
       <c r="S82" s="20">
         <v>22382</v>
       </c>
@@ -5612,26 +5459,26 @@
       </c>
     </row>
     <row r="83" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="69"/>
-      <c r="B83" s="69"/>
-      <c r="C83" s="69"/>
-      <c r="D83" s="102"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="99"/>
-      <c r="I83" s="69"/>
-      <c r="J83" s="69"/>
-      <c r="K83" s="69"/>
-      <c r="L83" s="69"/>
-      <c r="M83" s="69"/>
-      <c r="N83" s="69"/>
-      <c r="O83" s="69"/>
-      <c r="P83" s="69"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="100"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="97"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="67"/>
+      <c r="N83" s="67"/>
+      <c r="O83" s="67"/>
+      <c r="P83" s="67"/>
       <c r="Q83" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="R83" s="73"/>
+        <v>112</v>
+      </c>
+      <c r="R83" s="71"/>
       <c r="S83" s="33">
         <v>23630</v>
       </c>
@@ -5640,38 +5487,38 @@
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="70" t="s">
-        <v>221</v>
-      </c>
-      <c r="B84" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" s="70"/>
-      <c r="D84" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="E84" s="72">
+      <c r="A84" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="B84" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" s="68"/>
+      <c r="D84" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="70">
         <v>2021</v>
       </c>
-      <c r="F84" s="72">
+      <c r="F84" s="70">
         <v>4.0960000000000001</v>
       </c>
-      <c r="G84" s="70"/>
-      <c r="H84" s="65" t="s">
+      <c r="G84" s="68"/>
+      <c r="H84" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I84" s="70"/>
-      <c r="J84" s="70"/>
-      <c r="K84" s="70"/>
-      <c r="L84" s="70"/>
-      <c r="M84" s="70"/>
-      <c r="N84" s="70"/>
-      <c r="O84" s="70"/>
-      <c r="P84" s="70"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="68"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="68"/>
+      <c r="O84" s="68"/>
+      <c r="P84" s="68"/>
       <c r="Q84" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="R84" s="72">
+        <v>119</v>
+      </c>
+      <c r="R84" s="70">
         <v>41</v>
       </c>
       <c r="S84" s="34">
@@ -5682,26 +5529,26 @@
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="71"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="89"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="74"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="71"/>
-      <c r="L85" s="71"/>
-      <c r="M85" s="71"/>
-      <c r="N85" s="71"/>
-      <c r="O85" s="71"/>
-      <c r="P85" s="71"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="87"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="69"/>
+      <c r="K85" s="69"/>
+      <c r="L85" s="69"/>
+      <c r="M85" s="69"/>
+      <c r="N85" s="69"/>
+      <c r="O85" s="69"/>
+      <c r="P85" s="69"/>
       <c r="Q85" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="R85" s="74"/>
+        <v>120</v>
+      </c>
+      <c r="R85" s="72"/>
       <c r="S85" s="34">
         <v>1450</v>
       </c>
@@ -5710,24 +5557,24 @@
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="71"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="74"/>
-      <c r="F86" s="74"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="71"/>
-      <c r="L86" s="71"/>
-      <c r="M86" s="71"/>
-      <c r="N86" s="71"/>
-      <c r="O86" s="71"/>
-      <c r="P86" s="71"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="87"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="69"/>
+      <c r="J86" s="69"/>
+      <c r="K86" s="69"/>
+      <c r="L86" s="69"/>
+      <c r="M86" s="69"/>
+      <c r="N86" s="69"/>
+      <c r="O86" s="69"/>
+      <c r="P86" s="69"/>
       <c r="Q86" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R86" s="20">
         <v>51</v>
@@ -5740,24 +5587,24 @@
       </c>
     </row>
     <row r="87" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="69"/>
-      <c r="B87" s="69"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="69"/>
-      <c r="J87" s="69"/>
-      <c r="K87" s="69"/>
-      <c r="L87" s="69"/>
-      <c r="M87" s="69"/>
-      <c r="N87" s="69"/>
-      <c r="O87" s="69"/>
-      <c r="P87" s="69"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="67"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="67"/>
+      <c r="N87" s="67"/>
+      <c r="O87" s="67"/>
+      <c r="P87" s="67"/>
       <c r="Q87" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R87" s="21">
         <v>101</v>
@@ -5770,36 +5617,36 @@
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="B88" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="C88" s="70"/>
-      <c r="D88" s="87"/>
-      <c r="E88" s="72">
+      <c r="A88" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="68"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="70">
         <v>2022</v>
       </c>
-      <c r="F88" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="G88" s="70"/>
-      <c r="H88" s="97" t="s">
+      <c r="F88" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="G88" s="68"/>
+      <c r="H88" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="I88" s="70"/>
-      <c r="J88" s="70"/>
-      <c r="K88" s="70"/>
-      <c r="L88" s="70"/>
-      <c r="M88" s="70"/>
-      <c r="N88" s="70"/>
-      <c r="O88" s="70"/>
-      <c r="P88" s="70"/>
+      <c r="I88" s="68"/>
+      <c r="J88" s="68"/>
+      <c r="K88" s="68"/>
+      <c r="L88" s="68"/>
+      <c r="M88" s="68"/>
+      <c r="N88" s="68"/>
+      <c r="O88" s="68"/>
+      <c r="P88" s="68"/>
       <c r="Q88" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="R88" s="72">
+        <v>78</v>
+      </c>
+      <c r="R88" s="70">
         <v>41</v>
       </c>
       <c r="S88" s="34">
@@ -5810,26 +5657,26 @@
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="71"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="98"/>
-      <c r="I89" s="71"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="71"/>
-      <c r="L89" s="71"/>
-      <c r="M89" s="71"/>
-      <c r="N89" s="71"/>
-      <c r="O89" s="71"/>
-      <c r="P89" s="71"/>
+      <c r="A89" s="69"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="96"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
+      <c r="M89" s="69"/>
+      <c r="N89" s="69"/>
+      <c r="O89" s="69"/>
+      <c r="P89" s="69"/>
       <c r="Q89" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="R89" s="74"/>
+        <v>142</v>
+      </c>
+      <c r="R89" s="72"/>
       <c r="S89" s="20">
         <v>8606</v>
       </c>
@@ -5838,26 +5685,26 @@
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="71"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="98"/>
-      <c r="I90" s="71"/>
-      <c r="J90" s="71"/>
-      <c r="K90" s="71"/>
-      <c r="L90" s="71"/>
-      <c r="M90" s="71"/>
-      <c r="N90" s="71"/>
-      <c r="O90" s="71"/>
-      <c r="P90" s="71"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="87"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="69"/>
+      <c r="H90" s="96"/>
+      <c r="I90" s="69"/>
+      <c r="J90" s="69"/>
+      <c r="K90" s="69"/>
+      <c r="L90" s="69"/>
+      <c r="M90" s="69"/>
+      <c r="N90" s="69"/>
+      <c r="O90" s="69"/>
+      <c r="P90" s="69"/>
       <c r="Q90" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="R90" s="74"/>
+        <v>147</v>
+      </c>
+      <c r="R90" s="72"/>
       <c r="S90" s="20">
         <v>776</v>
       </c>
@@ -5866,24 +5713,24 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="69"/>
-      <c r="B91" s="69"/>
-      <c r="C91" s="69"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="73"/>
-      <c r="F91" s="73"/>
-      <c r="G91" s="69"/>
-      <c r="H91" s="99"/>
-      <c r="I91" s="69"/>
-      <c r="J91" s="69"/>
-      <c r="K91" s="69"/>
-      <c r="L91" s="69"/>
-      <c r="M91" s="69"/>
-      <c r="N91" s="69"/>
-      <c r="O91" s="69"/>
-      <c r="P91" s="69"/>
+      <c r="A91" s="67"/>
+      <c r="B91" s="67"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="97"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
+      <c r="L91" s="67"/>
+      <c r="M91" s="67"/>
+      <c r="N91" s="67"/>
+      <c r="O91" s="67"/>
+      <c r="P91" s="67"/>
       <c r="Q91" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R91" s="21">
         <v>101</v>
@@ -5897,7 +5744,7 @@
     </row>
     <row r="92" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -5906,7 +5753,7 @@
         <v>2022</v>
       </c>
       <c r="F92" s="32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="39" t="s">
@@ -5921,96 +5768,96 @@
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S92" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T92" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="71" t="s">
-        <v>224</v>
-      </c>
-      <c r="B93" s="71" t="s">
+      <c r="A93" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="B93" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="71"/>
-      <c r="D93" s="89"/>
-      <c r="E93" s="74">
+      <c r="C93" s="69"/>
+      <c r="D93" s="87"/>
+      <c r="E93" s="72">
         <v>2022</v>
       </c>
-      <c r="F93" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" s="71"/>
-      <c r="H93" s="98" t="s">
+      <c r="F93" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="G93" s="69"/>
+      <c r="H93" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="I93" s="71"/>
-      <c r="J93" s="71"/>
-      <c r="K93" s="71"/>
-      <c r="L93" s="71"/>
-      <c r="M93" s="71"/>
-      <c r="N93" s="71"/>
-      <c r="O93" s="71"/>
-      <c r="P93" s="71"/>
+      <c r="I93" s="69"/>
+      <c r="J93" s="69"/>
+      <c r="K93" s="69"/>
+      <c r="L93" s="69"/>
+      <c r="M93" s="69"/>
+      <c r="N93" s="69"/>
+      <c r="O93" s="69"/>
+      <c r="P93" s="69"/>
       <c r="Q93" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="R93" s="74">
+        <v>115</v>
+      </c>
+      <c r="R93" s="72">
         <v>41</v>
       </c>
       <c r="S93" s="34">
         <v>36537</v>
       </c>
       <c r="T93" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="69"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="88"/>
-      <c r="E94" s="73"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="99"/>
-      <c r="I94" s="69"/>
-      <c r="J94" s="69"/>
-      <c r="K94" s="69"/>
-      <c r="L94" s="69"/>
-      <c r="M94" s="69"/>
-      <c r="N94" s="69"/>
-      <c r="O94" s="69"/>
-      <c r="P94" s="69"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="67"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="97"/>
+      <c r="I94" s="67"/>
+      <c r="J94" s="67"/>
+      <c r="K94" s="67"/>
+      <c r="L94" s="67"/>
+      <c r="M94" s="67"/>
+      <c r="N94" s="67"/>
+      <c r="O94" s="67"/>
+      <c r="P94" s="67"/>
       <c r="Q94" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="R94" s="73"/>
+        <v>138</v>
+      </c>
+      <c r="R94" s="71"/>
       <c r="S94" s="21">
         <v>31873</v>
       </c>
       <c r="T94" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E95" s="7">
         <v>2019</v>
@@ -6031,7 +5878,7 @@
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R95" s="7">
         <v>41</v>
@@ -6044,38 +5891,38 @@
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="B96" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C96" s="70"/>
-      <c r="D96" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="E96" s="72">
+      <c r="A96" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="68"/>
+      <c r="D96" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="E96" s="70">
         <v>2020</v>
       </c>
-      <c r="F96" s="72">
+      <c r="F96" s="70">
         <v>4.0759999999999996</v>
       </c>
-      <c r="G96" s="70"/>
-      <c r="H96" s="95" t="s">
+      <c r="G96" s="68"/>
+      <c r="H96" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="I96" s="70"/>
-      <c r="J96" s="70"/>
-      <c r="K96" s="70"/>
-      <c r="L96" s="70"/>
-      <c r="M96" s="70"/>
-      <c r="N96" s="70"/>
-      <c r="O96" s="70"/>
-      <c r="P96" s="70"/>
+      <c r="I96" s="68"/>
+      <c r="J96" s="68"/>
+      <c r="K96" s="68"/>
+      <c r="L96" s="68"/>
+      <c r="M96" s="68"/>
+      <c r="N96" s="68"/>
+      <c r="O96" s="68"/>
+      <c r="P96" s="68"/>
       <c r="Q96" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="R96" s="93">
+        <v>142</v>
+      </c>
+      <c r="R96" s="91">
         <v>41</v>
       </c>
       <c r="S96" s="19">
@@ -6086,26 +5933,26 @@
       </c>
     </row>
     <row r="97" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="69"/>
-      <c r="B97" s="69"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="73"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="69"/>
-      <c r="H97" s="96"/>
-      <c r="I97" s="69"/>
-      <c r="J97" s="69"/>
-      <c r="K97" s="69"/>
-      <c r="L97" s="69"/>
-      <c r="M97" s="69"/>
-      <c r="N97" s="69"/>
-      <c r="O97" s="69"/>
-      <c r="P97" s="69"/>
+      <c r="A97" s="67"/>
+      <c r="B97" s="67"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="94"/>
+      <c r="I97" s="67"/>
+      <c r="J97" s="67"/>
+      <c r="K97" s="67"/>
+      <c r="L97" s="67"/>
+      <c r="M97" s="67"/>
+      <c r="N97" s="67"/>
+      <c r="O97" s="67"/>
+      <c r="P97" s="67"/>
       <c r="Q97" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="R97" s="94"/>
+        <v>76</v>
+      </c>
+      <c r="R97" s="92"/>
       <c r="S97" s="21">
         <v>11466</v>
       </c>
@@ -6114,34 +5961,34 @@
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="B98" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C98" s="70"/>
-      <c r="D98" s="87"/>
-      <c r="E98" s="72">
+      <c r="A98" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="68"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="70">
         <v>2020</v>
       </c>
-      <c r="F98" s="72"/>
-      <c r="G98" s="70"/>
-      <c r="H98" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
-      <c r="K98" s="70"/>
-      <c r="L98" s="70"/>
-      <c r="M98" s="70"/>
-      <c r="N98" s="70"/>
-      <c r="O98" s="70"/>
-      <c r="P98" s="70"/>
+      <c r="F98" s="70"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="I98" s="68"/>
+      <c r="J98" s="68"/>
+      <c r="K98" s="68"/>
+      <c r="L98" s="68"/>
+      <c r="M98" s="68"/>
+      <c r="N98" s="68"/>
+      <c r="O98" s="68"/>
+      <c r="P98" s="68"/>
       <c r="Q98" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="R98" s="72">
+        <v>129</v>
+      </c>
+      <c r="R98" s="70">
         <v>41</v>
       </c>
       <c r="S98" s="27">
@@ -6152,60 +5999,60 @@
       </c>
     </row>
     <row r="99" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="69"/>
-      <c r="B99" s="69"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="88"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="96"/>
-      <c r="I99" s="69"/>
-      <c r="J99" s="69"/>
-      <c r="K99" s="69"/>
-      <c r="L99" s="69"/>
-      <c r="M99" s="69"/>
-      <c r="N99" s="69"/>
-      <c r="O99" s="69"/>
-      <c r="P99" s="69"/>
+      <c r="A99" s="67"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="86"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="94"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="67"/>
+      <c r="K99" s="67"/>
+      <c r="L99" s="67"/>
+      <c r="M99" s="67"/>
+      <c r="N99" s="67"/>
+      <c r="O99" s="67"/>
+      <c r="P99" s="67"/>
       <c r="Q99" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="R99" s="73"/>
+      <c r="R99" s="71"/>
       <c r="S99" s="28">
         <v>308000</v>
       </c>
       <c r="T99" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="B100" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="C100" s="70"/>
-      <c r="D100" s="87"/>
-      <c r="E100" s="72">
+      <c r="A100" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="B100" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100" s="68"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="70">
         <v>2020</v>
       </c>
-      <c r="F100" s="72"/>
-      <c r="G100" s="70"/>
-      <c r="H100" s="90" t="s">
-        <v>187</v>
-      </c>
-      <c r="I100" s="70"/>
-      <c r="J100" s="70"/>
-      <c r="K100" s="70"/>
-      <c r="L100" s="70"/>
-      <c r="M100" s="70"/>
-      <c r="N100" s="70"/>
-      <c r="O100" s="70"/>
-      <c r="P100" s="70"/>
+      <c r="F100" s="70"/>
+      <c r="G100" s="68"/>
+      <c r="H100" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="I100" s="68"/>
+      <c r="J100" s="68"/>
+      <c r="K100" s="68"/>
+      <c r="L100" s="68"/>
+      <c r="M100" s="68"/>
+      <c r="N100" s="68"/>
+      <c r="O100" s="68"/>
+      <c r="P100" s="68"/>
       <c r="Q100" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="R100" s="29">
         <v>41</v>
@@ -6218,24 +6065,24 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="71"/>
-      <c r="B101" s="71"/>
-      <c r="C101" s="71"/>
-      <c r="D101" s="89"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="71"/>
-      <c r="H101" s="91"/>
-      <c r="I101" s="71"/>
-      <c r="J101" s="71"/>
-      <c r="K101" s="71"/>
-      <c r="L101" s="71"/>
-      <c r="M101" s="71"/>
-      <c r="N101" s="71"/>
-      <c r="O101" s="71"/>
-      <c r="P101" s="71"/>
+      <c r="A101" s="69"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="69"/>
+      <c r="D101" s="87"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
+      <c r="G101" s="69"/>
+      <c r="H101" s="89"/>
+      <c r="I101" s="69"/>
+      <c r="J101" s="69"/>
+      <c r="K101" s="69"/>
+      <c r="L101" s="69"/>
+      <c r="M101" s="69"/>
+      <c r="N101" s="69"/>
+      <c r="O101" s="69"/>
+      <c r="P101" s="69"/>
       <c r="Q101" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R101" s="12">
         <v>41</v>
@@ -6248,24 +6095,24 @@
       </c>
     </row>
     <row r="102" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="69"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="88"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="92"/>
-      <c r="I102" s="69"/>
-      <c r="J102" s="69"/>
-      <c r="K102" s="69"/>
-      <c r="L102" s="69"/>
-      <c r="M102" s="69"/>
-      <c r="N102" s="69"/>
-      <c r="O102" s="69"/>
-      <c r="P102" s="69"/>
+      <c r="A102" s="67"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="86"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="90"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="67"/>
+      <c r="L102" s="67"/>
+      <c r="M102" s="67"/>
+      <c r="N102" s="67"/>
+      <c r="O102" s="67"/>
+      <c r="P102" s="67"/>
       <c r="Q102" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R102" s="30">
         <v>41</v>
@@ -6279,10 +6126,10 @@
     </row>
     <row r="103" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="36"/>
@@ -6292,7 +6139,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="8"/>
       <c r="H103" s="45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
@@ -6303,7 +6150,7 @@
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R103" s="23">
         <v>41</v>
@@ -6316,32 +6163,32 @@
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="B104" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="C104" s="70"/>
-      <c r="D104" s="87"/>
-      <c r="E104" s="72">
+      <c r="A104" s="68" t="s">
+        <v>226</v>
+      </c>
+      <c r="B104" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" s="68"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="70">
         <v>2019</v>
       </c>
-      <c r="F104" s="72"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="103" t="s">
-        <v>189</v>
-      </c>
-      <c r="I104" s="70"/>
-      <c r="J104" s="70"/>
-      <c r="K104" s="70"/>
-      <c r="L104" s="70"/>
-      <c r="M104" s="70"/>
-      <c r="N104" s="70"/>
-      <c r="O104" s="70"/>
-      <c r="P104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="68"/>
+      <c r="H104" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="I104" s="68"/>
+      <c r="J104" s="68"/>
+      <c r="K104" s="68"/>
+      <c r="L104" s="68"/>
+      <c r="M104" s="68"/>
+      <c r="N104" s="68"/>
+      <c r="O104" s="68"/>
+      <c r="P104" s="68"/>
       <c r="Q104" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R104" s="29">
         <v>41</v>
@@ -6354,24 +6201,24 @@
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" s="71"/>
-      <c r="B105" s="71"/>
-      <c r="C105" s="71"/>
-      <c r="D105" s="89"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="91"/>
-      <c r="I105" s="71"/>
-      <c r="J105" s="71"/>
-      <c r="K105" s="71"/>
-      <c r="L105" s="71"/>
-      <c r="M105" s="71"/>
-      <c r="N105" s="71"/>
-      <c r="O105" s="71"/>
-      <c r="P105" s="71"/>
+      <c r="A105" s="69"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="87"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="72"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="89"/>
+      <c r="I105" s="69"/>
+      <c r="J105" s="69"/>
+      <c r="K105" s="69"/>
+      <c r="L105" s="69"/>
+      <c r="M105" s="69"/>
+      <c r="N105" s="69"/>
+      <c r="O105" s="69"/>
+      <c r="P105" s="69"/>
       <c r="Q105" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R105" s="12">
         <v>41</v>
@@ -6384,24 +6231,24 @@
       </c>
     </row>
     <row r="106" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="69"/>
-      <c r="B106" s="69"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="69"/>
-      <c r="H106" s="92"/>
-      <c r="I106" s="69"/>
-      <c r="J106" s="69"/>
-      <c r="K106" s="69"/>
-      <c r="L106" s="69"/>
-      <c r="M106" s="69"/>
-      <c r="N106" s="69"/>
-      <c r="O106" s="69"/>
-      <c r="P106" s="69"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="86"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="67"/>
+      <c r="H106" s="90"/>
+      <c r="I106" s="67"/>
+      <c r="J106" s="67"/>
+      <c r="K106" s="67"/>
+      <c r="L106" s="67"/>
+      <c r="M106" s="67"/>
+      <c r="N106" s="67"/>
+      <c r="O106" s="67"/>
+      <c r="P106" s="67"/>
       <c r="Q106" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R106" s="30">
         <v>41</v>
@@ -6415,7 +6262,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T109" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -6851,10 +6698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V273"/>
+  <dimension ref="A1:V260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C258" sqref="C258"/>
+    <sheetView topLeftCell="A189" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6865,1043 +6712,1004 @@
     <col min="4" max="4" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="53">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="53">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="57">
+        <v>43960</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="57">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="56"/>
+    </row>
+    <row r="12" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="56"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="57"/>
+      <c r="R12" s="55"/>
+    </row>
+    <row r="13" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="56"/>
+    </row>
+    <row r="31" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="55"/>
+    </row>
+    <row r="32" spans="8:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="56" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="7:7" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:1" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:1" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="51"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53"/>
+      <c r="O65" s="53"/>
+      <c r="P65" s="53"/>
+      <c r="Q65" s="53"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="53"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="B67" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="53"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="53"/>
+      <c r="O67" s="53"/>
+      <c r="P67" s="53"/>
+      <c r="Q67" s="53"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="53"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B69" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="53"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="53"/>
+      <c r="P70" s="53"/>
+      <c r="Q70" s="53"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="B71" s="53">
+        <v>1130</v>
+      </c>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="53"/>
+      <c r="M71" s="53"/>
+      <c r="N71" s="53"/>
+      <c r="O71" s="53"/>
+      <c r="P71" s="53"/>
+      <c r="Q71" s="53"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="53">
+        <v>1130</v>
+      </c>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="53"/>
+      <c r="O72" s="53"/>
+      <c r="P72" s="53"/>
+      <c r="Q72" s="53"/>
+      <c r="R72" s="48"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="C73" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" s="57">
+        <v>43672</v>
+      </c>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="53"/>
+      <c r="M73" s="53"/>
+      <c r="N73" s="53"/>
+      <c r="O73" s="53"/>
+      <c r="P73" s="53"/>
+      <c r="Q73" s="55" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="53"/>
+      <c r="B74" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="C74" s="54" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D74" s="57">
+        <v>44029</v>
+      </c>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="53"/>
+      <c r="L74" s="53"/>
+      <c r="M74" s="53"/>
+      <c r="N74" s="53"/>
+      <c r="O74" s="53"/>
+      <c r="P74" s="53"/>
+      <c r="Q74" s="53"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="53" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D75" s="57">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="88" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H88" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="I88" s="53"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="53"/>
+      <c r="L88" s="53"/>
+      <c r="M88" s="53"/>
+      <c r="N88" s="53"/>
+      <c r="O88" s="53"/>
+      <c r="P88" s="53"/>
+      <c r="Q88" s="53"/>
+      <c r="R88" s="53"/>
+    </row>
+    <row r="89" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H89" s="53"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="53"/>
+      <c r="L89" s="53"/>
+      <c r="M89" s="53"/>
+      <c r="N89" s="53"/>
+      <c r="O89" s="53"/>
+      <c r="P89" s="53"/>
+      <c r="Q89" s="53"/>
+      <c r="R89" s="55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H90" s="49"/>
+    </row>
+    <row r="91" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="R91" s="48"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="53"/>
+      <c r="B112" s="53"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="53"/>
+      <c r="B113" s="53"/>
+      <c r="H113" s="56" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="53"/>
+      <c r="B114" s="53"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="53"/>
+      <c r="B115" s="53"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="53"/>
+      <c r="B116" s="53"/>
+    </row>
+    <row r="117" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:18" s="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:18" s="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:18" s="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:18" s="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A135" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="B135" s="53"/>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A136" s="58" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B136" s="61" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A137" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="D9" s="50">
+      <c r="B137" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C137" s="53"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="53"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="53"/>
+      <c r="H137" s="53"/>
+      <c r="I137" s="53"/>
+      <c r="J137" s="53"/>
+      <c r="K137" s="53"/>
+      <c r="L137" s="53"/>
+      <c r="M137" s="53"/>
+      <c r="N137" s="53"/>
+      <c r="O137" s="53"/>
+      <c r="P137" s="53"/>
+      <c r="Q137" s="53"/>
+      <c r="R137" s="53"/>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A138" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="B138" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C138" s="53"/>
+      <c r="D138" s="53"/>
+      <c r="E138" s="53"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="53"/>
+      <c r="H138" s="53"/>
+      <c r="I138" s="53"/>
+      <c r="J138" s="53"/>
+      <c r="K138" s="53"/>
+      <c r="L138" s="53"/>
+      <c r="M138" s="53"/>
+      <c r="N138" s="53"/>
+      <c r="O138" s="53"/>
+      <c r="P138" s="53"/>
+      <c r="Q138" s="53"/>
+      <c r="R138" s="53"/>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A139" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B139" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139" s="53"/>
+      <c r="D139" s="53"/>
+      <c r="E139" s="53"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="53"/>
+      <c r="H139" s="53"/>
+      <c r="I139" s="53"/>
+      <c r="J139" s="53"/>
+      <c r="K139" s="53"/>
+      <c r="L139" s="53"/>
+      <c r="M139" s="53"/>
+      <c r="N139" s="53"/>
+      <c r="O139" s="53"/>
+      <c r="P139" s="53"/>
+      <c r="Q139" s="53"/>
+      <c r="R139" s="53"/>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A140" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="C140" s="53"/>
+      <c r="D140" s="53"/>
+      <c r="E140" s="53"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="53"/>
+      <c r="H140" s="53"/>
+      <c r="I140" s="53"/>
+      <c r="J140" s="53"/>
+      <c r="K140" s="53"/>
+      <c r="L140" s="53"/>
+      <c r="M140" s="53"/>
+      <c r="N140" s="53"/>
+      <c r="O140" s="53"/>
+      <c r="P140" s="53"/>
+      <c r="Q140" s="53"/>
+      <c r="R140" s="53"/>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A141" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" s="53">
+        <v>725</v>
+      </c>
+      <c r="C141" s="53"/>
+      <c r="D141" s="53"/>
+      <c r="E141" s="53"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="53"/>
+      <c r="H141" s="53"/>
+      <c r="I141" s="53"/>
+      <c r="J141" s="53"/>
+      <c r="K141" s="53"/>
+      <c r="L141" s="53"/>
+      <c r="M141" s="53"/>
+      <c r="N141" s="53"/>
+      <c r="O141" s="53"/>
+      <c r="P141" s="53"/>
+      <c r="Q141" s="53"/>
+      <c r="R141" s="53"/>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A142" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="B142" s="53">
+        <v>725</v>
+      </c>
+      <c r="C142" s="53"/>
+      <c r="D142" s="53"/>
+      <c r="E142" s="53"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="53"/>
+      <c r="H142" s="53"/>
+      <c r="I142" s="53"/>
+      <c r="J142" s="53"/>
+      <c r="K142" s="53"/>
+      <c r="L142" s="53"/>
+      <c r="M142" s="53"/>
+      <c r="N142" s="53"/>
+      <c r="O142" s="53"/>
+      <c r="P142" s="53"/>
+      <c r="Q142" s="53"/>
+      <c r="R142" s="53"/>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A143" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="B143" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="C143" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="D143" s="57">
         <v>43672</v>
       </c>
-      <c r="H9" s="49" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="50">
+      <c r="E143" s="53"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="53"/>
+      <c r="H143" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="I143" s="53"/>
+      <c r="J143" s="53"/>
+      <c r="K143" s="53"/>
+      <c r="L143" s="53"/>
+      <c r="M143" s="53"/>
+      <c r="N143" s="53"/>
+      <c r="O143" s="53"/>
+      <c r="P143" s="53"/>
+      <c r="Q143" s="53"/>
+      <c r="R143" s="53"/>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A144" s="53"/>
+      <c r="B144" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="C144" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="D144" s="57">
         <v>44029</v>
       </c>
-      <c r="R10" s="48" t="s">
+      <c r="E144" s="53"/>
+      <c r="F144" s="53"/>
+      <c r="G144" s="53"/>
+      <c r="H144" s="53"/>
+      <c r="I144" s="53"/>
+      <c r="J144" s="53"/>
+      <c r="K144" s="53"/>
+      <c r="L144" s="53"/>
+      <c r="M144" s="53"/>
+      <c r="N144" s="53"/>
+      <c r="O144" s="53"/>
+      <c r="P144" s="53"/>
+      <c r="Q144" s="53"/>
+      <c r="R144" s="55" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="145" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B145" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C145" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="D145" s="57">
+        <v>44197</v>
+      </c>
+      <c r="V145" s="48"/>
+    </row>
+    <row r="154" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B154" s="49"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="50"/>
+    </row>
+    <row r="155" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B155" s="49"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="50"/>
+    </row>
+    <row r="162" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H162" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="I162" s="53"/>
+      <c r="J162" s="53"/>
+      <c r="K162" s="53"/>
+      <c r="L162" s="53"/>
+      <c r="M162" s="53"/>
+      <c r="N162" s="53"/>
+      <c r="O162" s="53"/>
+      <c r="P162" s="53"/>
+      <c r="Q162" s="53"/>
+      <c r="R162" s="53"/>
+    </row>
+    <row r="163" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H163" s="53"/>
+      <c r="I163" s="53"/>
+      <c r="J163" s="53"/>
+      <c r="K163" s="53"/>
+      <c r="L163" s="53"/>
+      <c r="M163" s="53"/>
+      <c r="N163" s="53"/>
+      <c r="O163" s="53"/>
+      <c r="P163" s="53"/>
+      <c r="Q163" s="53"/>
+      <c r="R163" s="55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="53"/>
+      <c r="B188" s="53"/>
+      <c r="C188" s="53"/>
+      <c r="H188" s="56" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="53"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="53"/>
+    </row>
+    <row r="190" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="53"/>
+      <c r="B197" s="53"/>
+      <c r="C197" s="53"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="53"/>
+      <c r="B198" s="53"/>
+      <c r="C198" s="53"/>
+    </row>
+    <row r="200" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="B208" s="53"/>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A209" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="B209" s="59" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A210" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="B210" s="60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A211" s="58" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+      <c r="B211" s="53" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A212" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B212" s="53" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A213" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="B213" s="53" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A214" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="B214" s="53">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A215" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="B215" s="53">
+        <v>2100</v>
+      </c>
+      <c r="C215" s="53"/>
+      <c r="D215" s="53"/>
+      <c r="E215" s="53"/>
+      <c r="F215" s="53"/>
+      <c r="G215" s="53"/>
+      <c r="H215" s="53"/>
+      <c r="I215" s="53"/>
+      <c r="J215" s="53"/>
+      <c r="K215" s="53"/>
+      <c r="L215" s="53"/>
+      <c r="M215" s="53"/>
+      <c r="N215" s="53"/>
+      <c r="O215" s="53"/>
+      <c r="P215" s="53"/>
+      <c r="Q215" s="53"/>
+      <c r="R215" s="53"/>
+      <c r="S215" s="53"/>
+      <c r="T215" s="53"/>
+      <c r="U215" s="53"/>
+      <c r="V215" s="53"/>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A216" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="B216" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="C216" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="D216" s="57">
+        <v>44029</v>
+      </c>
+      <c r="E216" s="53"/>
+      <c r="F216" s="53"/>
+      <c r="G216" s="53"/>
+      <c r="H216" s="53"/>
+      <c r="I216" s="53"/>
+      <c r="J216" s="53"/>
+      <c r="K216" s="53"/>
+      <c r="L216" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="M216" s="53"/>
+      <c r="N216" s="53"/>
+      <c r="O216" s="53"/>
+      <c r="P216" s="53"/>
+      <c r="Q216" s="53"/>
+      <c r="R216" s="53"/>
+      <c r="S216" s="53"/>
+      <c r="T216" s="53"/>
+      <c r="U216" s="53"/>
+      <c r="V216" s="53"/>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A217" s="53"/>
+      <c r="B217" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="50">
-        <v>43960</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D12" s="50">
+      <c r="C217" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="D217" s="57">
         <v>44197</v>
       </c>
-    </row>
-    <row r="25" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H25" s="49" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="R26" s="48" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" s="54" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:17" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H53" s="49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="50"/>
-      <c r="H63" s="49"/>
-      <c r="Q63" s="48"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="49"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="50"/>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H72" s="49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" s="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:1" s="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:1" s="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="57" t="s">
-        <v>288</v>
-      </c>
-      <c r="B97" s="55"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="55"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="55"/>
-      <c r="J97" s="55"/>
-      <c r="K97" s="55"/>
-      <c r="L97" s="55"/>
-      <c r="M97" s="55"/>
-      <c r="N97" s="55"/>
-      <c r="O97" s="55"/>
-      <c r="P97" s="55"/>
-      <c r="Q97" s="55"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="B98" s="63" t="s">
-        <v>290</v>
-      </c>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="55"/>
-      <c r="J98" s="55"/>
-      <c r="K98" s="55"/>
-      <c r="L98" s="55"/>
-      <c r="M98" s="55"/>
-      <c r="N98" s="55"/>
-      <c r="O98" s="55"/>
-      <c r="P98" s="55"/>
-      <c r="Q98" s="55"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="B99" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="55"/>
-      <c r="J99" s="55"/>
-      <c r="K99" s="55"/>
-      <c r="L99" s="55"/>
-      <c r="M99" s="55"/>
-      <c r="N99" s="55"/>
-      <c r="O99" s="55"/>
-      <c r="P99" s="55"/>
-      <c r="Q99" s="55"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="B100" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="55"/>
-      <c r="J100" s="55"/>
-      <c r="K100" s="55"/>
-      <c r="L100" s="55"/>
-      <c r="M100" s="55"/>
-      <c r="N100" s="55"/>
-      <c r="O100" s="55"/>
-      <c r="P100" s="55"/>
-      <c r="Q100" s="55"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="60" t="s">
+      <c r="E217" s="53"/>
+      <c r="F217" s="53"/>
+      <c r="G217" s="53"/>
+      <c r="H217" s="53"/>
+      <c r="I217" s="53"/>
+      <c r="J217" s="53"/>
+      <c r="K217" s="53"/>
+      <c r="L217" s="53"/>
+      <c r="M217" s="53"/>
+      <c r="N217" s="53"/>
+      <c r="O217" s="53"/>
+      <c r="P217" s="53"/>
+      <c r="Q217" s="53"/>
+      <c r="R217" s="53"/>
+      <c r="S217" s="53"/>
+      <c r="T217" s="53"/>
+      <c r="U217" s="53"/>
+      <c r="V217" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="B101" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="C101" s="55"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="55"/>
-      <c r="J101" s="55"/>
-      <c r="K101" s="55"/>
-      <c r="L101" s="55"/>
-      <c r="M101" s="55"/>
-      <c r="N101" s="55"/>
-      <c r="O101" s="55"/>
-      <c r="P101" s="55"/>
-      <c r="Q101" s="55"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="B102" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="C102" s="55"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="55"/>
-      <c r="J102" s="55"/>
-      <c r="K102" s="55"/>
-      <c r="L102" s="55"/>
-      <c r="M102" s="55"/>
-      <c r="N102" s="55"/>
-      <c r="O102" s="55"/>
-      <c r="P102" s="55"/>
-      <c r="Q102" s="55"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="B103" s="55">
-        <v>1130</v>
-      </c>
-      <c r="C103" s="55"/>
-      <c r="D103" s="55"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="55"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="55"/>
-      <c r="J103" s="55"/>
-      <c r="K103" s="55"/>
-      <c r="L103" s="55"/>
-      <c r="M103" s="55"/>
-      <c r="N103" s="55"/>
-      <c r="O103" s="55"/>
-      <c r="P103" s="55"/>
-      <c r="Q103" s="55"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="B104" s="55">
-        <v>1130</v>
-      </c>
-      <c r="C104" s="55"/>
-      <c r="D104" s="55"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="55"/>
-      <c r="G104" s="55"/>
-      <c r="H104" s="55"/>
-      <c r="I104" s="55"/>
-      <c r="J104" s="55"/>
-      <c r="K104" s="55"/>
-      <c r="L104" s="55"/>
-      <c r="M104" s="55"/>
-      <c r="N104" s="55"/>
-      <c r="O104" s="55"/>
-      <c r="P104" s="55"/>
-      <c r="Q104" s="55"/>
-      <c r="R104" s="48"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="B105" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="C105" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="D105" s="59">
-        <v>43672</v>
-      </c>
-      <c r="E105" s="55"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="I105" s="55"/>
-      <c r="J105" s="55"/>
-      <c r="K105" s="55"/>
-      <c r="L105" s="55"/>
-      <c r="M105" s="55"/>
-      <c r="N105" s="55"/>
-      <c r="O105" s="55"/>
-      <c r="P105" s="55"/>
-      <c r="Q105" s="57" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
-      <c r="B106" s="58" t="s">
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A226" s="53"/>
+      <c r="B226" s="56"/>
+      <c r="C226" s="54"/>
+      <c r="D226" s="57"/>
+      <c r="E226" s="53"/>
+      <c r="F226" s="53"/>
+      <c r="G226" s="53"/>
+      <c r="H226" s="53"/>
+      <c r="I226" s="53"/>
+      <c r="J226" s="53"/>
+      <c r="K226" s="53"/>
+      <c r="L226" s="53"/>
+      <c r="M226" s="53"/>
+      <c r="N226" s="53"/>
+      <c r="O226" s="53"/>
+      <c r="P226" s="53"/>
+      <c r="Q226" s="53"/>
+      <c r="R226" s="53"/>
+      <c r="S226" s="53"/>
+      <c r="T226" s="53"/>
+      <c r="U226" s="53"/>
+      <c r="V226" s="53"/>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A227" s="53"/>
+      <c r="B227" s="56"/>
+      <c r="C227" s="54"/>
+      <c r="D227" s="57"/>
+      <c r="E227" s="53"/>
+      <c r="F227" s="53"/>
+      <c r="G227" s="53"/>
+      <c r="H227" s="53"/>
+      <c r="I227" s="53"/>
+      <c r="J227" s="53"/>
+      <c r="K227" s="53"/>
+      <c r="L227" s="53"/>
+      <c r="M227" s="53"/>
+      <c r="N227" s="53"/>
+      <c r="O227" s="53"/>
+      <c r="P227" s="53"/>
+      <c r="Q227" s="53"/>
+      <c r="R227" s="53"/>
+      <c r="S227" s="53"/>
+      <c r="T227" s="53"/>
+      <c r="U227" s="53"/>
+      <c r="V227" s="53"/>
+    </row>
+    <row r="241" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L241" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="C106" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="D106" s="59">
-        <v>44029</v>
-      </c>
-      <c r="E106" s="55"/>
-      <c r="F106" s="55"/>
-      <c r="G106" s="55"/>
-      <c r="H106" s="55"/>
-      <c r="I106" s="55"/>
-      <c r="J106" s="55"/>
-      <c r="K106" s="55"/>
-      <c r="L106" s="55"/>
-      <c r="M106" s="55"/>
-      <c r="N106" s="55"/>
-      <c r="O106" s="55"/>
-      <c r="P106" s="55"/>
-      <c r="Q106" s="55"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B107" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="C107" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="D107" s="59">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="120" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H120" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="I120" s="55"/>
-      <c r="J120" s="55"/>
-      <c r="K120" s="55"/>
-      <c r="L120" s="55"/>
-      <c r="M120" s="55"/>
-      <c r="N120" s="55"/>
-      <c r="O120" s="55"/>
-      <c r="P120" s="55"/>
-      <c r="Q120" s="55"/>
-      <c r="R120" s="55"/>
-    </row>
-    <row r="121" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H121" s="55"/>
-      <c r="I121" s="55"/>
-      <c r="J121" s="55"/>
-      <c r="K121" s="55"/>
-      <c r="L121" s="55"/>
-      <c r="M121" s="55"/>
-      <c r="N121" s="55"/>
-      <c r="O121" s="55"/>
-      <c r="P121" s="55"/>
-      <c r="Q121" s="55"/>
-      <c r="R121" s="57" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="122" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H122" s="49"/>
-    </row>
-    <row r="123" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="R123" s="48"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="55"/>
-      <c r="B144" s="55"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="55"/>
-      <c r="B145" s="55"/>
-      <c r="H145" s="58" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="55"/>
-      <c r="B146" s="55"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="55"/>
-      <c r="B147" s="55"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="55"/>
-      <c r="B148" s="55"/>
-    </row>
-    <row r="149" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:18" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A167" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="B167" s="55"/>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A168" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="B168" s="63" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A169" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="B169" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="C169" s="55"/>
-      <c r="D169" s="55"/>
-      <c r="E169" s="55"/>
-      <c r="F169" s="55"/>
-      <c r="G169" s="55"/>
-      <c r="H169" s="55"/>
-      <c r="I169" s="55"/>
-      <c r="J169" s="55"/>
-      <c r="K169" s="55"/>
-      <c r="L169" s="55"/>
-      <c r="M169" s="55"/>
-      <c r="N169" s="55"/>
-      <c r="O169" s="55"/>
-      <c r="P169" s="55"/>
-      <c r="Q169" s="55"/>
-      <c r="R169" s="55"/>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A170" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="B170" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C170" s="55"/>
-      <c r="D170" s="55"/>
-      <c r="E170" s="55"/>
-      <c r="F170" s="55"/>
-      <c r="G170" s="55"/>
-      <c r="H170" s="55"/>
-      <c r="I170" s="55"/>
-      <c r="J170" s="55"/>
-      <c r="K170" s="55"/>
-      <c r="L170" s="55"/>
-      <c r="M170" s="55"/>
-      <c r="N170" s="55"/>
-      <c r="O170" s="55"/>
-      <c r="P170" s="55"/>
-      <c r="Q170" s="55"/>
-      <c r="R170" s="55"/>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A171" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="B171" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="C171" s="55"/>
-      <c r="D171" s="55"/>
-      <c r="E171" s="55"/>
-      <c r="F171" s="55"/>
-      <c r="G171" s="55"/>
-      <c r="H171" s="55"/>
-      <c r="I171" s="55"/>
-      <c r="J171" s="55"/>
-      <c r="K171" s="55"/>
-      <c r="L171" s="55"/>
-      <c r="M171" s="55"/>
-      <c r="N171" s="55"/>
-      <c r="O171" s="55"/>
-      <c r="P171" s="55"/>
-      <c r="Q171" s="55"/>
-      <c r="R171" s="55"/>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A172" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="B172" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="C172" s="55"/>
-      <c r="D172" s="55"/>
-      <c r="E172" s="55"/>
-      <c r="F172" s="55"/>
-      <c r="G172" s="55"/>
-      <c r="H172" s="55"/>
-      <c r="I172" s="55"/>
-      <c r="J172" s="55"/>
-      <c r="K172" s="55"/>
-      <c r="L172" s="55"/>
-      <c r="M172" s="55"/>
-      <c r="N172" s="55"/>
-      <c r="O172" s="55"/>
-      <c r="P172" s="55"/>
-      <c r="Q172" s="55"/>
-      <c r="R172" s="55"/>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A173" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="B173" s="55">
-        <v>725</v>
-      </c>
-      <c r="C173" s="55"/>
-      <c r="D173" s="55"/>
-      <c r="E173" s="55"/>
-      <c r="F173" s="55"/>
-      <c r="G173" s="55"/>
-      <c r="H173" s="55"/>
-      <c r="I173" s="55"/>
-      <c r="J173" s="55"/>
-      <c r="K173" s="55"/>
-      <c r="L173" s="55"/>
-      <c r="M173" s="55"/>
-      <c r="N173" s="55"/>
-      <c r="O173" s="55"/>
-      <c r="P173" s="55"/>
-      <c r="Q173" s="55"/>
-      <c r="R173" s="55"/>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A174" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="B174" s="55">
-        <v>725</v>
-      </c>
-      <c r="C174" s="55"/>
-      <c r="D174" s="55"/>
-      <c r="E174" s="55"/>
-      <c r="F174" s="55"/>
-      <c r="G174" s="55"/>
-      <c r="H174" s="55"/>
-      <c r="I174" s="55"/>
-      <c r="J174" s="55"/>
-      <c r="K174" s="55"/>
-      <c r="L174" s="55"/>
-      <c r="M174" s="55"/>
-      <c r="N174" s="55"/>
-      <c r="O174" s="55"/>
-      <c r="P174" s="55"/>
-      <c r="Q174" s="55"/>
-      <c r="R174" s="55"/>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A175" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="B175" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="C175" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="D175" s="59">
-        <v>43672</v>
-      </c>
-      <c r="E175" s="55"/>
-      <c r="F175" s="55"/>
-      <c r="G175" s="55"/>
-      <c r="H175" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="I175" s="55"/>
-      <c r="J175" s="55"/>
-      <c r="K175" s="55"/>
-      <c r="L175" s="55"/>
-      <c r="M175" s="55"/>
-      <c r="N175" s="55"/>
-      <c r="O175" s="55"/>
-      <c r="P175" s="55"/>
-      <c r="Q175" s="55"/>
-      <c r="R175" s="55"/>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A176" s="55"/>
-      <c r="B176" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="C176" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="D176" s="59">
-        <v>44029</v>
-      </c>
-      <c r="E176" s="55"/>
-      <c r="F176" s="55"/>
-      <c r="G176" s="55"/>
-      <c r="H176" s="55"/>
-      <c r="I176" s="55"/>
-      <c r="J176" s="55"/>
-      <c r="K176" s="55"/>
-      <c r="L176" s="55"/>
-      <c r="M176" s="55"/>
-      <c r="N176" s="55"/>
-      <c r="O176" s="55"/>
-      <c r="P176" s="55"/>
-      <c r="Q176" s="55"/>
-      <c r="R176" s="57" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="177" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B177" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="C177" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="D177" s="59">
-        <v>44197</v>
-      </c>
-      <c r="V177" s="48"/>
-    </row>
-    <row r="186" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B186" s="49"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="50"/>
-    </row>
-    <row r="187" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B187" s="49"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="50"/>
-    </row>
-    <row r="194" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H194" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="I194" s="55"/>
-      <c r="J194" s="55"/>
-      <c r="K194" s="55"/>
-      <c r="L194" s="55"/>
-      <c r="M194" s="55"/>
-      <c r="N194" s="55"/>
-      <c r="O194" s="55"/>
-      <c r="P194" s="55"/>
-      <c r="Q194" s="55"/>
-      <c r="R194" s="55"/>
-    </row>
-    <row r="195" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H195" s="55"/>
-      <c r="I195" s="55"/>
-      <c r="J195" s="55"/>
-      <c r="K195" s="55"/>
-      <c r="L195" s="55"/>
-      <c r="M195" s="55"/>
-      <c r="N195" s="55"/>
-      <c r="O195" s="55"/>
-      <c r="P195" s="55"/>
-      <c r="Q195" s="55"/>
-      <c r="R195" s="57" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="55"/>
-      <c r="B220" s="55"/>
-      <c r="C220" s="55"/>
-      <c r="H220" s="58" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="55"/>
-      <c r="B221" s="55"/>
-      <c r="C221" s="55"/>
-    </row>
-    <row r="222" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" spans="1:3" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:3" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" spans="1:3" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" spans="1:3" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="55"/>
-      <c r="B229" s="55"/>
-      <c r="C229" s="55"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="55"/>
-      <c r="B230" s="55"/>
-      <c r="C230" s="55"/>
-    </row>
-    <row r="232" spans="1:3" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="1:3" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:3" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:3" s="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:3" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="1:3" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="1:3" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="B240" s="55"/>
-    </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A241" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="B241" s="61" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A242" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="B242" s="62" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A243" s="60" t="s">
-        <v>293</v>
-      </c>
-      <c r="B243" s="55" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A244" s="60" t="s">
-        <v>294</v>
-      </c>
-      <c r="B244" s="55" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A245" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="B245" s="55" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A246" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="B246" s="55">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A247" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="B247" s="55">
-        <v>2100</v>
-      </c>
-      <c r="C247" s="55"/>
-      <c r="D247" s="55"/>
-      <c r="E247" s="55"/>
-      <c r="F247" s="55"/>
-      <c r="G247" s="55"/>
-      <c r="H247" s="55"/>
-      <c r="I247" s="55"/>
-      <c r="J247" s="55"/>
-      <c r="K247" s="55"/>
-      <c r="L247" s="55"/>
-      <c r="M247" s="55"/>
-      <c r="N247" s="55"/>
-      <c r="O247" s="55"/>
-      <c r="P247" s="55"/>
-      <c r="Q247" s="55"/>
-      <c r="R247" s="55"/>
-      <c r="S247" s="55"/>
-      <c r="T247" s="55"/>
-      <c r="U247" s="55"/>
-      <c r="V247" s="55"/>
-    </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A248" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="B248" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="C248" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="D248" s="59">
-        <v>44029</v>
-      </c>
-      <c r="E248" s="55"/>
-      <c r="F248" s="55"/>
-      <c r="G248" s="55"/>
-      <c r="H248" s="55"/>
-      <c r="I248" s="55"/>
-      <c r="J248" s="55"/>
-      <c r="K248" s="55"/>
-      <c r="L248" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="M248" s="55"/>
-      <c r="N248" s="55"/>
-      <c r="O248" s="55"/>
-      <c r="P248" s="55"/>
-      <c r="Q248" s="55"/>
-      <c r="R248" s="55"/>
-      <c r="S248" s="55"/>
-      <c r="T248" s="55"/>
-      <c r="U248" s="55"/>
-      <c r="V248" s="55"/>
-    </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A249" s="55"/>
-      <c r="B249" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="C249" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="D249" s="59">
-        <v>44197</v>
-      </c>
-      <c r="E249" s="55"/>
-      <c r="F249" s="55"/>
-      <c r="G249" s="55"/>
-      <c r="H249" s="55"/>
-      <c r="I249" s="55"/>
-      <c r="J249" s="55"/>
-      <c r="K249" s="55"/>
-      <c r="L249" s="55"/>
-      <c r="M249" s="55"/>
-      <c r="N249" s="55"/>
-      <c r="O249" s="55"/>
-      <c r="P249" s="55"/>
-      <c r="Q249" s="55"/>
-      <c r="R249" s="55"/>
-      <c r="S249" s="55"/>
-      <c r="T249" s="55"/>
-      <c r="U249" s="55"/>
-      <c r="V249" s="57" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A258" s="55"/>
-      <c r="B258" s="58"/>
-      <c r="C258" s="56"/>
-      <c r="D258" s="59"/>
-      <c r="E258" s="55"/>
-      <c r="F258" s="55"/>
-      <c r="G258" s="55"/>
-      <c r="H258" s="55"/>
-      <c r="I258" s="55"/>
-      <c r="J258" s="55"/>
-      <c r="K258" s="55"/>
-      <c r="L258" s="55"/>
-      <c r="M258" s="55"/>
-      <c r="N258" s="55"/>
-      <c r="O258" s="55"/>
-      <c r="P258" s="55"/>
-      <c r="Q258" s="55"/>
-      <c r="R258" s="55"/>
-      <c r="S258" s="55"/>
-      <c r="T258" s="55"/>
-      <c r="U258" s="55"/>
-      <c r="V258" s="55"/>
-    </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A259" s="55"/>
-      <c r="B259" s="58"/>
-      <c r="C259" s="56"/>
-      <c r="D259" s="59"/>
-      <c r="E259" s="55"/>
-      <c r="F259" s="55"/>
-      <c r="G259" s="55"/>
-      <c r="H259" s="55"/>
-      <c r="I259" s="55"/>
-      <c r="J259" s="55"/>
-      <c r="K259" s="55"/>
-      <c r="L259" s="55"/>
-      <c r="M259" s="55"/>
-      <c r="N259" s="55"/>
-      <c r="O259" s="55"/>
-      <c r="P259" s="55"/>
-      <c r="Q259" s="55"/>
-      <c r="R259" s="55"/>
-      <c r="S259" s="55"/>
-      <c r="T259" s="55"/>
-      <c r="U259" s="55"/>
-      <c r="V259" s="55"/>
-    </row>
-    <row r="273" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L273" s="58" t="s">
-        <v>313</v>
-      </c>
-    </row>
+    </row>
+    <row r="259" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A89:XFD91"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B99" r:id="rId2" display="http://lin.uestc.edu.cn/server/Methy/data"/>
-    <hyperlink ref="B242" r:id="rId3" display="https://github.com/nongdaxiaofeng/RFAthM6A"/>
+    <hyperlink ref="B67" r:id="rId1" display="http://lin.uestc.edu.cn/server/Methy/data"/>
+    <hyperlink ref="B210" r:id="rId2" display="https://github.com/nongdaxiaofeng/RFAthM6A"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>